--- a/test/songs_list.xlsx
+++ b/test/songs_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\_federick\auRPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\_federick\auRPD\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55B293D-56F4-4610-815E-DD708DF1E0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA749842-1F18-40A8-917E-DB271C4FC311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Song Artist</t>
   </si>
@@ -53,13 +53,40 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=UNo0TG9LwwI</t>
+  </si>
+  <si>
+    <t>0:35</t>
+  </si>
+  <si>
+    <t>1:19</t>
+  </si>
+  <si>
+    <t>2:18</t>
+  </si>
+  <si>
+    <t>3:35</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Km71Rr9K-Bw</t>
+  </si>
+  <si>
+    <t>0:52</t>
+  </si>
+  <si>
+    <t>1:57</t>
+  </si>
+  <si>
+    <t>NewJeans</t>
+  </si>
+  <si>
+    <t>Ditto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +217,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -492,7 +527,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -535,13 +570,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -575,6 +612,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -895,66 +933,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>2.5694444444444447E-2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.888888888888889E-2</v>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.14791666666666667</v>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{403DEBE3-8441-4091-B14E-229D207F8961}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>